--- a/database/industry/bics.xlsx
+++ b/database/industry/bics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\datadriven-project\database\industry_classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\datadriven-project\database\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/database/industry/bics.xlsx
+++ b/database/industry/bics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
